--- a/data/542/KOSTAT/old/Monthly_KOS.xlsx
+++ b/data/542/KOSTAT/old/Monthly_KOS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="464">
   <si>
     <t>By province</t>
   </si>
@@ -1338,10 +1338,16 @@
     <t>2021. 06</t>
   </si>
   <si>
-    <t>2021. 07 p)</t>
-  </si>
-  <si>
-    <t>2021. 08 p)</t>
+    <t>2021. 07</t>
+  </si>
+  <si>
+    <t>2021. 08</t>
+  </si>
+  <si>
+    <t>2021. 09 p)</t>
+  </si>
+  <si>
+    <t>2021. 10 p)</t>
   </si>
   <si>
     <t>Whole country</t>
@@ -1368,7 +1374,7 @@
     <t>○ Search Period</t>
   </si>
   <si>
-    <t>[Monthly] 198501~202108  </t>
+    <t>[Monthly] 198501~202110  </t>
   </si>
   <si>
     <t>○ Source</t>
@@ -1380,7 +1386,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2021.10.07 15:15</t>
+    <t>2021.12.28 13:40</t>
   </si>
   <si>
     <t>○ Table URL</t>
@@ -1989,7 +1995,9 @@
     <col min="440" max="440" width="9.375" customWidth="true"/>
     <col min="441" max="441" width="11.71875" customWidth="true"/>
     <col min="442" max="442" width="11.71875" customWidth="true"/>
-    <col min="443" max="443" width="10.7421875" customWidth="true"/>
+    <col min="443" max="443" width="9.375" customWidth="true"/>
+    <col min="444" max="444" width="10.7421875" customWidth="true"/>
+    <col min="445" max="445" width="10.7421875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
@@ -3322,16 +3330,22 @@
       <c r="QA1" s="2" t="s">
         <v>442</v>
       </c>
+      <c r="QB1" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="QC1" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
       <c r="A2" s="14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>8.14</v>
@@ -4648,10 +4662,16 @@
         <v>108.6</v>
       </c>
       <c r="PZ2" s="4" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="QA2" s="4" t="n">
-        <v>90.5</v>
+        <v>90.4</v>
+      </c>
+      <c r="QB2" s="4" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="QC2" s="4" t="n">
+        <v>93.4</v>
       </c>
     </row>
   </sheetData>
@@ -4669,66 +4689,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
